--- a/Chain.of.Heroes/Tools/data/BossMonster_GoblinLoad.xlsx
+++ b/Chain.of.Heroes/Tools/data/BossMonster_GoblinLoad.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\데이터테이블_수정용\몬스터\보스\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junha\OneDrive\문서\GitHub\Chain_Of_Heroes\Chain.of.Heroes\Tools\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B088289-6844-4E92-B962-FACA404925C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GoblinLoad" sheetId="1" r:id="rId1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="77">
   <si>
     <t>Int</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -192,22 +193,6 @@
   </si>
   <si>
     <t>MonsterRank</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>크리티컬 확률</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>크리티컬 데미지</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CriticalRate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CriticalDamage</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -323,7 +308,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -901,11 +886,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -921,11 +906,9 @@
     <col min="12" max="12" width="26.5" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.25" style="17" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="23.75" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.375" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.375" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -971,14 +954,8 @@
       <c r="O1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
@@ -998,10 +975,8 @@
       <c r="O2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -1047,14 +1022,8 @@
       <c r="O3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
@@ -1098,24 +1067,18 @@
         <v>23</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q4" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
         <v>20030001</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D5" s="17">
         <v>1</v>
@@ -1151,24 +1114,18 @@
         <v>2</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P5" s="17">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="17">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>20030002</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D6" s="17">
         <v>2</v>
@@ -1207,24 +1164,18 @@
         <v>2</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P6" s="17">
-        <v>15</v>
-      </c>
-      <c r="Q6" s="17">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>20030003</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D7" s="17">
         <v>3</v>
@@ -1263,24 +1214,18 @@
         <v>2</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P7" s="17">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="17">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>20030004</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D8" s="17">
         <v>4</v>
@@ -1319,16 +1264,10 @@
         <v>2</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P8" s="17">
-        <v>15</v>
-      </c>
-      <c r="Q8" s="17">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>20030005</v>
       </c>
@@ -1336,7 +1275,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D9" s="17">
         <v>5</v>
@@ -1375,24 +1314,18 @@
         <v>2</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P9" s="17">
-        <v>15</v>
-      </c>
-      <c r="Q9" s="17">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>20030006</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D10" s="17">
         <v>6</v>
@@ -1431,24 +1364,18 @@
         <v>2</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P10" s="17">
-        <v>15</v>
-      </c>
-      <c r="Q10" s="17">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>20030007</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D11" s="17">
         <v>7</v>
@@ -1487,24 +1414,18 @@
         <v>2</v>
       </c>
       <c r="O11" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P11" s="17">
-        <v>15</v>
-      </c>
-      <c r="Q11" s="17">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>20030008</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D12" s="17">
         <v>8</v>
@@ -1543,24 +1464,18 @@
         <v>2</v>
       </c>
       <c r="O12" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P12" s="17">
-        <v>15</v>
-      </c>
-      <c r="Q12" s="17">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>20030009</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D13" s="17">
         <v>9</v>
@@ -1599,16 +1514,10 @@
         <v>2</v>
       </c>
       <c r="O13" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P13" s="17">
-        <v>15</v>
-      </c>
-      <c r="Q13" s="17">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>20030010</v>
       </c>
@@ -1616,7 +1525,7 @@
         <v>32</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D14" s="17">
         <v>10</v>
@@ -1655,24 +1564,18 @@
         <v>2</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P14" s="17">
-        <v>15</v>
-      </c>
-      <c r="Q14" s="17">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>20030011</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D15" s="17">
         <v>11</v>
@@ -1711,24 +1614,18 @@
         <v>2</v>
       </c>
       <c r="O15" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P15" s="17">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="17">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>20030012</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D16" s="17">
         <v>12</v>
@@ -1767,24 +1664,18 @@
         <v>2</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P16" s="17">
-        <v>15</v>
-      </c>
-      <c r="Q16" s="17">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>20030013</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D17" s="17">
         <v>13</v>
@@ -1823,24 +1714,18 @@
         <v>2</v>
       </c>
       <c r="O17" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P17" s="17">
-        <v>15</v>
-      </c>
-      <c r="Q17" s="17">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>20030014</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D18" s="17">
         <v>14</v>
@@ -1879,16 +1764,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P18" s="17">
-        <v>15</v>
-      </c>
-      <c r="Q18" s="17">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>20030015</v>
       </c>
@@ -1896,7 +1775,7 @@
         <v>33</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D19" s="17">
         <v>15</v>
@@ -1935,24 +1814,18 @@
         <v>2</v>
       </c>
       <c r="O19" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P19" s="17">
-        <v>15</v>
-      </c>
-      <c r="Q19" s="17">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>20030016</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D20" s="17">
         <v>16</v>
@@ -1991,24 +1864,18 @@
         <v>2</v>
       </c>
       <c r="O20" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P20" s="17">
-        <v>15</v>
-      </c>
-      <c r="Q20" s="17">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>20030017</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D21" s="17">
         <v>17</v>
@@ -2047,24 +1914,18 @@
         <v>2</v>
       </c>
       <c r="O21" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P21" s="17">
-        <v>15</v>
-      </c>
-      <c r="Q21" s="17">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>20030018</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D22" s="17">
         <v>18</v>
@@ -2103,24 +1964,18 @@
         <v>2</v>
       </c>
       <c r="O22" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P22" s="17">
-        <v>15</v>
-      </c>
-      <c r="Q22" s="17">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>20030019</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D23" s="17">
         <v>19</v>
@@ -2159,16 +2014,10 @@
         <v>2</v>
       </c>
       <c r="O23" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P23" s="17">
-        <v>15</v>
-      </c>
-      <c r="Q23" s="17">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>20030020</v>
       </c>
@@ -2176,7 +2025,7 @@
         <v>34</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D24" s="17">
         <v>20</v>
@@ -2215,24 +2064,18 @@
         <v>2</v>
       </c>
       <c r="O24" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P24" s="17">
-        <v>15</v>
-      </c>
-      <c r="Q24" s="17">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>20030021</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D25" s="17">
         <v>21</v>
@@ -2271,24 +2114,18 @@
         <v>2</v>
       </c>
       <c r="O25" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P25" s="17">
-        <v>15</v>
-      </c>
-      <c r="Q25" s="17">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>20030022</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D26" s="17">
         <v>22</v>
@@ -2327,24 +2164,18 @@
         <v>2</v>
       </c>
       <c r="O26" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P26" s="17">
-        <v>15</v>
-      </c>
-      <c r="Q26" s="17">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>20030023</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D27" s="17">
         <v>23</v>
@@ -2383,24 +2214,18 @@
         <v>2</v>
       </c>
       <c r="O27" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P27" s="17">
-        <v>15</v>
-      </c>
-      <c r="Q27" s="17">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>20030024</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D28" s="17">
         <v>24</v>
@@ -2439,16 +2264,10 @@
         <v>2</v>
       </c>
       <c r="O28" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P28" s="17">
-        <v>15</v>
-      </c>
-      <c r="Q28" s="17">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>20030025</v>
       </c>
@@ -2456,7 +2275,7 @@
         <v>35</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D29" s="17">
         <v>25</v>
@@ -2495,24 +2314,18 @@
         <v>2</v>
       </c>
       <c r="O29" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P29" s="17">
-        <v>15</v>
-      </c>
-      <c r="Q29" s="17">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>20030026</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D30" s="17">
         <v>26</v>
@@ -2551,24 +2364,18 @@
         <v>2</v>
       </c>
       <c r="O30" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P30" s="17">
-        <v>15</v>
-      </c>
-      <c r="Q30" s="17">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>20030027</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D31" s="17">
         <v>27</v>
@@ -2607,24 +2414,18 @@
         <v>2</v>
       </c>
       <c r="O31" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P31" s="17">
-        <v>15</v>
-      </c>
-      <c r="Q31" s="17">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <v>20030028</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D32" s="17">
         <v>28</v>
@@ -2663,24 +2464,18 @@
         <v>2</v>
       </c>
       <c r="O32" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P32" s="17">
-        <v>15</v>
-      </c>
-      <c r="Q32" s="17">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="17">
         <v>20030029</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D33" s="17">
         <v>29</v>
@@ -2719,16 +2514,10 @@
         <v>2</v>
       </c>
       <c r="O33" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P33" s="17">
-        <v>15</v>
-      </c>
-      <c r="Q33" s="17">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="17">
         <v>20030030</v>
       </c>
@@ -2736,7 +2525,7 @@
         <v>36</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D34" s="17">
         <v>30</v>
@@ -2775,24 +2564,18 @@
         <v>2</v>
       </c>
       <c r="O34" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P34" s="17">
-        <v>15</v>
-      </c>
-      <c r="Q34" s="17">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="17">
         <v>20030031</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D35" s="17">
         <v>31</v>
@@ -2831,24 +2614,18 @@
         <v>2</v>
       </c>
       <c r="O35" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P35" s="17">
-        <v>15</v>
-      </c>
-      <c r="Q35" s="17">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="17">
         <v>20030032</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D36" s="17">
         <v>32</v>
@@ -2887,24 +2664,18 @@
         <v>2</v>
       </c>
       <c r="O36" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P36" s="17">
-        <v>15</v>
-      </c>
-      <c r="Q36" s="17">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="17">
         <v>20030033</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D37" s="17">
         <v>33</v>
@@ -2943,24 +2714,18 @@
         <v>2</v>
       </c>
       <c r="O37" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P37" s="17">
-        <v>15</v>
-      </c>
-      <c r="Q37" s="17">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="17">
         <v>20030034</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D38" s="17">
         <v>34</v>
@@ -2999,16 +2764,10 @@
         <v>2</v>
       </c>
       <c r="O38" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P38" s="17">
-        <v>15</v>
-      </c>
-      <c r="Q38" s="17">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
         <v>20030035</v>
       </c>
@@ -3016,7 +2775,7 @@
         <v>37</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D39" s="17">
         <v>35</v>
@@ -3055,24 +2814,18 @@
         <v>2</v>
       </c>
       <c r="O39" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P39" s="17">
-        <v>15</v>
-      </c>
-      <c r="Q39" s="17">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="17">
         <v>20030036</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D40" s="17">
         <v>36</v>
@@ -3111,24 +2864,18 @@
         <v>2</v>
       </c>
       <c r="O40" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P40" s="17">
-        <v>15</v>
-      </c>
-      <c r="Q40" s="17">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="17">
         <v>20030037</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D41" s="17">
         <v>37</v>
@@ -3167,24 +2914,18 @@
         <v>2</v>
       </c>
       <c r="O41" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P41" s="17">
-        <v>15</v>
-      </c>
-      <c r="Q41" s="17">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="17">
         <v>20030038</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D42" s="17">
         <v>38</v>
@@ -3223,24 +2964,18 @@
         <v>2</v>
       </c>
       <c r="O42" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P42" s="17">
-        <v>15</v>
-      </c>
-      <c r="Q42" s="17">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="17">
         <v>20030039</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D43" s="17">
         <v>39</v>
@@ -3279,16 +3014,10 @@
         <v>2</v>
       </c>
       <c r="O43" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P43" s="17">
-        <v>15</v>
-      </c>
-      <c r="Q43" s="17">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="17">
         <v>20030040</v>
       </c>
@@ -3296,7 +3025,7 @@
         <v>38</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D44" s="17">
         <v>40</v>
@@ -3335,13 +3064,7 @@
         <v>2</v>
       </c>
       <c r="O44" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="P44" s="17">
-        <v>15</v>
-      </c>
-      <c r="Q44" s="17">
-        <v>1.3</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
